--- a/data/D_DIRECTORES DE DEPARTAMENTOS ACÁDEMICOS DE LAS FACULTADES.xlsx
+++ b/data/D_DIRECTORES DE DEPARTAMENTOS ACÁDEMICOS DE LAS FACULTADES.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\directorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B321759C-78F3-4290-956E-4042C75838DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809CF019-D66A-44E4-BB96-66F56D2C5C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{614A18BD-2E61-44FD-A432-24CCFCAD251D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EEBB731C-2B38-4A15-BA6F-BFE6CDA96AFF}"/>
   </bookViews>
   <sheets>
-    <sheet name="DIRECTORES DE DEPARTAMENTOS ACÁ" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
   <si>
     <t>APELLIDOS Y NOMBRES</t>
   </si>
@@ -102,7 +102,7 @@
     <t>fcc.dpto.contabilidad@unac.edu.pe</t>
   </si>
   <si>
-    <t>POMALAYA VERÁSTEGUI RICARDO LUIS</t>
+    <t>CALERO BRIONES MAXIMO ESTANISLAO</t>
   </si>
   <si>
     <t>Director -  DEPARTAMENTO ACADÉMICO DE LA FCE</t>
@@ -111,10 +111,13 @@
     <t>DAFCE.</t>
   </si>
   <si>
+    <t>033-2024-CEU/UNAC</t>
+  </si>
+  <si>
     <t>420-0219</t>
   </si>
   <si>
-    <t>rlpomalayav@unac.edu.pe</t>
+    <t>mecalerob@unac.edu.pe</t>
   </si>
   <si>
     <t>fce.dpto.economia@unac.edu.pe</t>
@@ -162,9 +165,6 @@
     <t>DAFFCNM.</t>
   </si>
   <si>
-    <t>081-2023-CF-FCNM</t>
-  </si>
-  <si>
     <t>429-7178</t>
   </si>
   <si>
@@ -174,7 +174,7 @@
     <t>fcnm.dpto.fisica@unac.edu.pe</t>
   </si>
   <si>
-    <t>ÁVILA CELIS CÉSAR AUGUSTO</t>
+    <t>MENDOZA QUISPE WILFREDO</t>
   </si>
   <si>
     <t>Director -  DEPARTAMENTO ACADÉMICO DE MATEMÁTICA - FCNM</t>
@@ -183,16 +183,13 @@
     <t>DAMFCNM.</t>
   </si>
   <si>
-    <t>100-2023-D-FCNM</t>
-  </si>
-  <si>
-    <t>caavilac@unac.edu.pe</t>
+    <t>wmendozaq@unac.edu.pe</t>
   </si>
   <si>
     <t>fcnm.dpto.matematica@unac.edu.pe</t>
   </si>
   <si>
-    <t>QUINTANILLA ALARCÓN JORGE</t>
+    <t>LEYVA HARO SERGIO</t>
   </si>
   <si>
     <t>Director -  DEPARTAMENTO ACADÉMICO DE LA FIARN</t>
@@ -201,13 +198,10 @@
     <t>DAFIARN.</t>
   </si>
   <si>
-    <t>079-2023-D-FIARN</t>
-  </si>
-  <si>
     <t>453-0647</t>
   </si>
   <si>
-    <t>jquintanillaa@unac.edu.pe</t>
+    <t>sleyvah@unac.edu.pe</t>
   </si>
   <si>
     <t>fiarn.dpto.ambiental@unac.edu.pe</t>
@@ -297,22 +291,19 @@
     <t>fime.dpto.mecanica@unac.edu.pe</t>
   </si>
   <si>
-    <t>JÁUREGUI NONGRADOS NAPOLEÓN</t>
+    <t>GAMARRA CHINCHAY ARTURO PERCEY</t>
   </si>
   <si>
     <t>Director -  DEPARTAMENTO ACADÉMICO DE INGENIERÍA EN ENERGÍA</t>
   </si>
   <si>
-    <t>013-2023-D-FIME</t>
-  </si>
-  <si>
-    <t>eloayzah@unac.edu.pe</t>
+    <t>apgamarrach@unac.edu.pe</t>
   </si>
   <si>
     <t>fime.dpto.energia@unac.edu.pe</t>
   </si>
   <si>
-    <t>ROMERO DEXTRE JOSÉ ANTONIO</t>
+    <t>MARILUZ FERNÁNDEZ ARNULFO ANTONIO</t>
   </si>
   <si>
     <t>Director -  DEPARTAMENTO ACADÉMICO DE INGENIERÍA PESQUERA</t>
@@ -324,7 +315,7 @@
     <t>420-1590</t>
   </si>
   <si>
-    <t>jaromerod@unac.edu.pe</t>
+    <t>aamariluzf@unac.edu.pe</t>
   </si>
   <si>
     <t>fipa.dpto.pesquera@unac.edu.pe</t>
@@ -375,7 +366,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -424,30 +415,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF001F5F"/>
       </left>
       <right style="thin">
@@ -471,6 +438,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF001F5F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,28 +495,28 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -545,351 +536,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF008ECF"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF008ECF"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -924,6 +570,303 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF008ECF"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF008ECF"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -938,19 +881,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C65FE6B-6A87-42CD-9078-2D126E0CC39C}" name="Tabla11" displayName="Tabla11" ref="A1:H18" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H18" xr:uid="{4DAE12BC-2906-498F-8DF0-294A9605C2D9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB8E4E10-9E35-4CC6-A395-4BB9A92907B5}" name="Tabla1" displayName="Tabla1" ref="A1:H18" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:H18" xr:uid="{DB8E4E10-9E35-4CC6-A395-4BB9A92907B5}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0314429D-F703-4B1F-8A22-62A68F20BF51}" name="APELLIDOS Y NOMBRES" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{FF57404E-C04F-4173-81E9-EB7A265F7D40}" name="CARGO" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{AF845D48-2A07-4DDC-A69F-F42C0E2BD068}" name="SIGLA" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8B646F79-9643-425C-9E08-24089BCDD92B}" name="RESOL." dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B839958D-EB7E-4C73-A22E-472622C031A9}" name="TELF. FIJO" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{54887FAE-2623-425E-A0AC-B8ED7A4EAF78}" name="CORREO INSTITUCIONAL" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{9947C6BF-E74C-4BA7-87C9-FF6BD22B000C}" name="CORREOS GENERAL" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{B8BB29B5-9DD4-4BE4-84D1-A9F717C4673C}" name="ANEXO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E5E1FE81-F435-4796-9A15-C6157387D5EC}" name="APELLIDOS Y NOMBRES" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A4AA134F-DCE5-4ED8-858C-9A94531A1A24}" name="CARGO" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{BCF87210-F7B7-4032-9D4E-2D46D39567D4}" name="SIGLA" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{D5B9DB98-EA62-4369-8747-6D2F495C886B}" name="RESOL." dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{D4D8AA44-A171-497D-BF24-57D8F7FB4E4A}" name="TELF. FIJO" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{4760B35A-7020-4F8C-9F05-88AC563B3726}" name="CORREO INSTITUCIONAL" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{52311311-F9E0-4631-9060-DBAF778E00BB}" name="CORREOS GENERAL" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{3E1EA3F7-962E-4446-8937-AE3129942A1A}" name="ANEXO" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1250,512 +1193,512 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7960636A-F827-439F-8D66-A5E5DB73E61B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1021E2-D2D4-4F5F-9CE0-D0E0F51A064D}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12" style="3"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="12" style="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="38.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="56.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="67.5">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>2003</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="56.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" ht="67.5">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="56.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" ht="67.5">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="78.75">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="G5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="78.75">
-      <c r="A6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:8" ht="90">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="G6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="67.5">
-      <c r="A7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:8" ht="78.75">
+      <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="78.75">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:8" ht="90">
+      <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="67.5">
+      <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="56.25">
-      <c r="A9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="6" t="s">
+    <row r="10" spans="1:8" ht="101.25">
+      <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="78.75">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:8" ht="101.25">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="8"/>
+      <c r="F11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="90">
-      <c r="A11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="6" t="s">
+    <row r="12" spans="1:8" ht="101.25">
+      <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="78.75">
-      <c r="A12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="90">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="101.25">
+      <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="C14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="78.75">
-      <c r="A14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="1:8" ht="90">
+      <c r="A15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="8"/>
+      <c r="F15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="78.75">
-      <c r="A15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="5" t="s">
+    <row r="16" spans="1:8" ht="90">
+      <c r="A16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="78.75">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:8" ht="101.25">
+      <c r="A17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="8"/>
+      <c r="F17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="90">
-      <c r="A17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="5" t="s">
+    <row r="18" spans="1:8" ht="90">
+      <c r="A18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="C18" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="78.75">
-      <c r="A18" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H18" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="mailto:fca.dpto.administracion@unac.edu.pe" xr:uid="{555C0F6B-A6D8-4037-B092-3A6E40CD6299}"/>
-    <hyperlink ref="G3" r:id="rId2" display="mailto:fcc.dpto.contabilidad@unac.edu.pe" xr:uid="{EFFCF724-E0E8-4460-81F2-9E8656A0C8B7}"/>
-    <hyperlink ref="G4" r:id="rId3" display="mailto:fce.dpto.economia@unac.edu.pe" xr:uid="{D06F4F0D-57C4-4F8E-89B2-89C2B3D4C53D}"/>
-    <hyperlink ref="G5" r:id="rId4" display="mailto:fcs.dpto.enfermeria@unac.edu.pe" xr:uid="{7CA96488-6F41-4DEF-9434-01C99386A020}"/>
-    <hyperlink ref="G6" r:id="rId5" display="mailto:fcs.dpto.e.fisica@unac.edu.pe" xr:uid="{C3DEA4C5-CC81-4761-A3E8-9581FB44CA80}"/>
-    <hyperlink ref="G7" r:id="rId6" display="mailto:fcnm.dpto.fisica@unac.edu.pe" xr:uid="{FD236350-5B0C-434E-916F-7B6D75084D14}"/>
-    <hyperlink ref="G8" r:id="rId7" display="mailto:fcnm.dpto.matematica@unac.edu.pe" xr:uid="{788DA75F-8DF8-4204-8098-C1817AC29F4F}"/>
-    <hyperlink ref="G9" r:id="rId8" display="mailto:fiarn.dpto.ambiental@unac.edu.pe" xr:uid="{6F67D370-6BA3-4576-9E5B-41EC1E433DA0}"/>
-    <hyperlink ref="G10" r:id="rId9" display="mailto:fiee.dpto.electrica@unac.edu.pe" xr:uid="{DA88BD6F-6A70-4D40-8A88-DCA09FA9B145}"/>
-    <hyperlink ref="G11" r:id="rId10" display="mailto:fiee.dpto.electronica@unac.edu.pe" xr:uid="{00040612-AC64-4954-A69D-EC4D35B33C1E}"/>
-    <hyperlink ref="G12" r:id="rId11" display="mailto:fiis.dpto.industrial@unac.edu.pe" xr:uid="{81425C60-548B-4009-9BCA-E9808E7FE020}"/>
-    <hyperlink ref="G13" r:id="rId12" display="mailto:fiis.dpto.sistemas@unac.edu.pe" xr:uid="{A66DF182-EB25-4F9B-A194-13E0D1BE1029}"/>
-    <hyperlink ref="G14" r:id="rId13" display="mailto:fime.dpto.mecanica@unac.edu.pe" xr:uid="{ED610AE7-8EEE-4D51-B63A-8268D59A51C0}"/>
-    <hyperlink ref="G15" r:id="rId14" display="mailto:fime.dpto.energia@unac.edu.pe" xr:uid="{7A2F4145-D42D-4729-8C18-A672091FF4F3}"/>
-    <hyperlink ref="G16" r:id="rId15" display="mailto:fipa.dpto.pesquera@unac.edu.pe" xr:uid="{09E5D98E-E859-4E02-916B-3B7EEA2860F4}"/>
-    <hyperlink ref="G17" r:id="rId16" display="mailto:fipa.dpto.alimentos@unac.edu.pe" xr:uid="{517AAE55-A936-44A5-AFC5-079C17B26A87}"/>
-    <hyperlink ref="G18" r:id="rId17" display="mailto:fiq.dpto.quimica@unac.edu.pe" xr:uid="{22799FA8-050A-4081-8A36-DBD3BA0FC9DB}"/>
-    <hyperlink ref="F7" r:id="rId18" xr:uid="{11196D2F-A7A0-4AE3-8393-0A2C28A2CD63}"/>
-    <hyperlink ref="F8" r:id="rId19" xr:uid="{460ABE00-379E-4726-9707-5C2069EC6AB5}"/>
-    <hyperlink ref="F9" r:id="rId20" xr:uid="{3F448EB4-2902-480B-B7D4-4AD77A931A69}"/>
-    <hyperlink ref="F4" r:id="rId21" xr:uid="{D2D5B989-7DDE-476A-9183-CA1E317E883B}"/>
-    <hyperlink ref="F15" r:id="rId22" xr:uid="{E588BB69-EFA5-4809-9E2B-78FA006B0F08}"/>
-    <hyperlink ref="F10" r:id="rId23" xr:uid="{33C41ED3-E711-426F-8314-108857270999}"/>
-    <hyperlink ref="F11" r:id="rId24" xr:uid="{4BFE39BD-C7C1-4E55-ACC2-D9844C65D8C3}"/>
-    <hyperlink ref="F16" r:id="rId25" xr:uid="{AD1D4AA2-DDE3-40C4-9043-68B88F309B94}"/>
-    <hyperlink ref="F17" r:id="rId26" xr:uid="{3BAE3385-8C85-4768-88F8-20DD87E53227}"/>
-    <hyperlink ref="F13" r:id="rId27" xr:uid="{AD7904F8-ECBF-44FB-9765-F43CBB9A3064}"/>
-    <hyperlink ref="F14" r:id="rId28" xr:uid="{3A9E1C54-B84C-4291-A7E6-E665E2FCC866}"/>
-    <hyperlink ref="F3" r:id="rId29" xr:uid="{92D1B7DC-01B8-4427-ABC4-E2864D8FC1D7}"/>
-    <hyperlink ref="D2" r:id="rId30" xr:uid="{C12ABBA1-01BC-459E-9439-5ABFCC09CE21}"/>
-    <hyperlink ref="D3" r:id="rId31" xr:uid="{40D9950A-02C7-4446-BDEC-A333C6034659}"/>
-    <hyperlink ref="D4" r:id="rId32" xr:uid="{A53FC5BB-0664-4983-A048-979C0E4B6BD8}"/>
-    <hyperlink ref="D5" r:id="rId33" xr:uid="{9F9423FA-0B59-46AF-BB94-E04736F58E1C}"/>
-    <hyperlink ref="D6" r:id="rId34" xr:uid="{675DCFEA-0251-4A0A-B433-5B9D5966438A}"/>
-    <hyperlink ref="D8" r:id="rId35" display="011-2022-CEU./UNAC." xr:uid="{0E5D8C89-0DFA-4804-BC68-5178E5E3CC58}"/>
-    <hyperlink ref="D10" r:id="rId36" xr:uid="{58DF8A22-FCD1-4B7B-8560-B67FE46BA6EF}"/>
-    <hyperlink ref="D11" r:id="rId37" xr:uid="{3EE9E9F2-D5AF-40B3-BFF8-185E8102FDA9}"/>
-    <hyperlink ref="D12" r:id="rId38" xr:uid="{BA746EE3-EBA0-4AF1-959A-7D657E371F04}"/>
-    <hyperlink ref="D13" r:id="rId39" xr:uid="{6B7855FB-4D4E-4015-9797-2E54AECB57D5}"/>
-    <hyperlink ref="D14" r:id="rId40" xr:uid="{29A3F0E3-F87B-4D9D-8156-F1FE5DB469B0}"/>
-    <hyperlink ref="D16" r:id="rId41" xr:uid="{0C2A2E42-ED7B-47CA-8373-543A3B5F9D21}"/>
-    <hyperlink ref="D18" r:id="rId42" xr:uid="{799B576D-E89B-40E4-B8C0-61DE0AD008D3}"/>
+    <hyperlink ref="G2" r:id="rId1" display="mailto:fca.dpto.administracion@unac.edu.pe" xr:uid="{608CF741-DD52-4B43-825D-B9CB9A4DEC2B}"/>
+    <hyperlink ref="G3" r:id="rId2" display="mailto:fcc.dpto.contabilidad@unac.edu.pe" xr:uid="{08764967-1A43-4C6A-933C-6A8D0F9DF606}"/>
+    <hyperlink ref="G4" r:id="rId3" display="mailto:fce.dpto.economia@unac.edu.pe" xr:uid="{47DF29A3-2C5F-4EF3-9760-57E239B4D792}"/>
+    <hyperlink ref="G5" r:id="rId4" display="mailto:fcs.dpto.enfermeria@unac.edu.pe" xr:uid="{1EB85550-7BAE-4CDC-A7A8-C55D4518E18F}"/>
+    <hyperlink ref="G6" r:id="rId5" display="mailto:fcs.dpto.e.fisica@unac.edu.pe" xr:uid="{D2FE07B0-99C4-4A63-B620-4ED9AAA4A4C0}"/>
+    <hyperlink ref="G7" r:id="rId6" display="mailto:fcnm.dpto.fisica@unac.edu.pe" xr:uid="{697D5BF6-6581-4856-84DA-D6704CB92B8A}"/>
+    <hyperlink ref="G8" r:id="rId7" display="mailto:fcnm.dpto.matematica@unac.edu.pe" xr:uid="{8DA41F82-54BA-4BEA-AEA3-BBD8A3F3B141}"/>
+    <hyperlink ref="G9" r:id="rId8" display="mailto:fiarn.dpto.ambiental@unac.edu.pe" xr:uid="{D659F269-119F-4F7C-BFD1-666117257A94}"/>
+    <hyperlink ref="G10" r:id="rId9" display="mailto:fiee.dpto.electrica@unac.edu.pe" xr:uid="{DCCBC26F-637F-44BB-A0BB-412F11A36B2B}"/>
+    <hyperlink ref="G11" r:id="rId10" display="mailto:fiee.dpto.electronica@unac.edu.pe" xr:uid="{9A740D9A-F193-468F-8599-23C2BB9DD8B0}"/>
+    <hyperlink ref="G12" r:id="rId11" display="mailto:fiis.dpto.industrial@unac.edu.pe" xr:uid="{92083924-DE97-4F26-9BED-157BEB9127BD}"/>
+    <hyperlink ref="G13" r:id="rId12" display="mailto:fiis.dpto.sistemas@unac.edu.pe" xr:uid="{6D2C6CC6-3AD8-47EF-B097-2855763FF997}"/>
+    <hyperlink ref="G14" r:id="rId13" display="mailto:fime.dpto.mecanica@unac.edu.pe" xr:uid="{DEC32A22-2D62-443A-9B8D-A6A2DCF0A7A7}"/>
+    <hyperlink ref="G15" r:id="rId14" display="mailto:fime.dpto.energia@unac.edu.pe" xr:uid="{F593BE34-D9F6-41F9-AB13-5802E9E40377}"/>
+    <hyperlink ref="G16" r:id="rId15" display="mailto:fipa.dpto.pesquera@unac.edu.pe" xr:uid="{5BC9158E-73FB-4B1B-BDCA-7B7C0AFFE076}"/>
+    <hyperlink ref="G17" r:id="rId16" display="mailto:fipa.dpto.alimentos@unac.edu.pe" xr:uid="{C1A50C02-C6FA-41DB-8EEB-4406F8A59169}"/>
+    <hyperlink ref="G18" r:id="rId17" display="mailto:fiq.dpto.quimica@unac.edu.pe" xr:uid="{200D5BFD-4F46-424A-AFD8-1BD7AFC3D89E}"/>
+    <hyperlink ref="F7" r:id="rId18" xr:uid="{FFA4BE7F-BF86-4657-99CA-31AB6DFA436B}"/>
+    <hyperlink ref="F8" r:id="rId19" xr:uid="{A2C36EFD-4223-4FCE-98FF-669593FACC22}"/>
+    <hyperlink ref="F9" r:id="rId20" xr:uid="{A6BB824B-928B-4C6A-8D0F-35F858C93746}"/>
+    <hyperlink ref="F4" r:id="rId21" xr:uid="{34BAB029-873A-4983-973F-A5290D18DA91}"/>
+    <hyperlink ref="F15" r:id="rId22" xr:uid="{26945F29-4C71-4862-9FC3-5DABAD8E71A4}"/>
+    <hyperlink ref="F10" r:id="rId23" xr:uid="{3B810487-FA43-4D26-85F8-5801B0AB6A05}"/>
+    <hyperlink ref="F11" r:id="rId24" xr:uid="{B4091B72-6699-4DD1-8085-0C8A9151FD6A}"/>
+    <hyperlink ref="F16" r:id="rId25" xr:uid="{11D7624D-319D-4193-B131-46DCAC467A43}"/>
+    <hyperlink ref="F17" r:id="rId26" xr:uid="{C7B29F4E-7F88-46E4-8EFD-DFD8DF905D8C}"/>
+    <hyperlink ref="F13" r:id="rId27" xr:uid="{9024FD03-2B0A-421E-8143-B1DBEE9727B3}"/>
+    <hyperlink ref="F14" r:id="rId28" xr:uid="{8AC253D4-602D-4871-978A-BEF27559DFCF}"/>
+    <hyperlink ref="F3" r:id="rId29" xr:uid="{99116F43-217A-40DD-82A7-2FB0881D8A8D}"/>
+    <hyperlink ref="D2" r:id="rId30" xr:uid="{C9788976-45BA-494C-BE03-3D75486ED11B}"/>
+    <hyperlink ref="D4" r:id="rId31" xr:uid="{994FA4F4-D816-4A15-A546-72444D7ECD86}"/>
+    <hyperlink ref="D5" r:id="rId32" xr:uid="{88484F3D-41F2-41AE-8DC9-A89A0206EEAB}"/>
+    <hyperlink ref="D6" r:id="rId33" xr:uid="{C333D321-9C36-43D6-AA78-126F49F8D415}"/>
+    <hyperlink ref="D11" r:id="rId34" xr:uid="{809727FB-F26C-4335-B631-8EAD29C1850D}"/>
+    <hyperlink ref="D12" r:id="rId35" xr:uid="{F0AF0147-FEEF-48C9-8007-5E6DE2B8BBC7}"/>
+    <hyperlink ref="D13" r:id="rId36" xr:uid="{77101210-5038-47D0-BBFC-06B8E609E82B}"/>
+    <hyperlink ref="D14" r:id="rId37" xr:uid="{395EE407-EBF6-4736-B8B0-7EEE8407CF8C}"/>
+    <hyperlink ref="D18" r:id="rId38" xr:uid="{C663AC61-812A-4BF5-B69B-2CF3E249E6DB}"/>
+    <hyperlink ref="D10" r:id="rId39" xr:uid="{E1CB5723-50C1-4D10-9B6D-F5F5BDDBA57E}"/>
+    <hyperlink ref="D16" r:id="rId40" xr:uid="{A581082E-6B40-4AC1-99E5-59A8B944BF41}"/>
+    <hyperlink ref="D7" r:id="rId41" xr:uid="{8D3342F4-F28D-4EDB-AD2F-91D2C1E54727}"/>
+    <hyperlink ref="D8" r:id="rId42" xr:uid="{33941C14-5484-44BD-9962-981DA849C0E4}"/>
+    <hyperlink ref="D3" r:id="rId43" xr:uid="{784D5C5A-252E-4FC7-9991-E111310602B2}"/>
+    <hyperlink ref="D15" r:id="rId44" xr:uid="{BBCA4E8A-8C33-4F07-B96C-F346BD4405D2}"/>
+    <hyperlink ref="D9" r:id="rId45" xr:uid="{E571A46F-A35A-4804-BB03-397DAC7D419B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId43"/>
+    <tablePart r:id="rId46"/>
   </tableParts>
 </worksheet>
 </file>